--- a/myapp/files/9_MethodComparePercent/Scenario 336.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 336.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8892</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.47008496138795</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8324</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.37617939930199</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.07142857142857</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>9996</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.65260563135784</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.07142857142857</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2072</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.342556909581178</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.07142857142857</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6816</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.12686674503152</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>9922</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.64037145601566</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.14285714285714</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>2240</v>
+        <v>30370</v>
       </c>
       <c r="F9" t="n">
-        <v>2.24811569766858</v>
+        <v>5.02097169111022</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>2.04081632653061</v>
+        <v>4.28571428571429</v>
       </c>
       <c r="K9" t="n">
         <v>3</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>2835</v>
+        <v>19728</v>
       </c>
       <c r="F10" t="n">
-        <v>2.8452714298618</v>
+        <v>3.26156501554898</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -897,10 +897,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>2.04081632653061</v>
+        <v>4.64285714285714</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>175</v>
+        <v>973</v>
       </c>
       <c r="F11" t="n">
-        <v>0.175634038880358</v>
+        <v>0.16086287308035</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.04081632653061</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.446382073295936</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>5846</v>
+        <v>16643</v>
       </c>
       <c r="F13" t="n">
-        <v>5.86718052168328</v>
+        <v>2.75153216513491</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.04081632653061</v>
+        <v>2.14285714285714</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>18483</v>
+        <v>53844</v>
       </c>
       <c r="F14" t="n">
-        <v>18.5499653750038</v>
+        <v>8.90185050168385</v>
       </c>
       <c r="G14" t="n">
         <v>4</v>
@@ -1049,10 +1049,10 @@
         <v>5.97014925373134</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J14" t="n">
-        <v>12.2448979591837</v>
+        <v>7.14285714285714</v>
       </c>
       <c r="K14" t="n">
         <v>8</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>15239</v>
+        <v>55956</v>
       </c>
       <c r="F15" t="n">
-        <v>15.2942121057016</v>
+        <v>9.25102047901756</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
@@ -1087,10 +1087,10 @@
         <v>7.46268656716418</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J15" t="n">
-        <v>14.2857142857143</v>
+        <v>9.28571428571429</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>4221</v>
+        <v>23079</v>
       </c>
       <c r="F16" t="n">
-        <v>4.23629301779424</v>
+        <v>3.81557476651738</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>6.12244897959184</v>
+        <v>4.28571428571429</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1652</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.273119698179588</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>6270</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.03659837020945</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.78571428571429</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>930</v>
+        <v>35980</v>
       </c>
       <c r="F19" t="n">
-        <v>0.933369463764189</v>
+        <v>5.94845444340289</v>
       </c>
       <c r="G19" t="n">
         <v>10</v>
@@ -1239,10 +1239,10 @@
         <v>14.9253731343284</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J19" t="n">
-        <v>2.04081632653061</v>
+        <v>6.42857142857143</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>7008</v>
+        <v>77246</v>
       </c>
       <c r="F20" t="n">
-        <v>7.03339053984885</v>
+        <v>12.7708257903029</v>
       </c>
       <c r="G20" t="n">
         <v>30</v>
@@ -1277,10 +1277,10 @@
         <v>44.7761194029851</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>10.2040816326531</v>
+        <v>13.5714285714286</v>
       </c>
       <c r="K20" t="n">
         <v>11</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>5154</v>
+        <v>48836</v>
       </c>
       <c r="F21" t="n">
-        <v>5.17267335079637</v>
+        <v>8.0738944190668</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J21" t="n">
-        <v>8.16326530612245</v>
+        <v>9.64285714285714</v>
       </c>
       <c r="K21" t="n">
         <v>7</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>4830</v>
+        <v>8606</v>
       </c>
       <c r="F22" t="n">
-        <v>4.84749947309788</v>
+        <v>1.42280152695734</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>4.08163265306122</v>
+        <v>1.07142857142857</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>5346</v>
+        <v>11882</v>
       </c>
       <c r="F23" t="n">
-        <v>5.36536898202511</v>
+        <v>1.96441177588975</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>4.08163265306122</v>
+        <v>1.78571428571429</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>5346</v>
+        <v>33403</v>
       </c>
       <c r="F24" t="n">
-        <v>5.36536898202511</v>
+        <v>5.52240755344599</v>
       </c>
       <c r="G24" t="n">
         <v>5</v>
@@ -1429,10 +1429,10 @@
         <v>7.46268656716418</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J24" t="n">
-        <v>4.08163265306122</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>8531</v>
+        <v>69723</v>
       </c>
       <c r="F25" t="n">
-        <v>8.56190848964763</v>
+        <v>11.5270730727454</v>
       </c>
       <c r="G25" t="n">
         <v>7</v>
@@ -1467,10 +1467,10 @@
         <v>10.4477611940299</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J25" t="n">
-        <v>12.2448979591837</v>
+        <v>11.4285714285714</v>
       </c>
       <c r="K25" t="n">
         <v>7</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>13455</v>
+        <v>61950</v>
       </c>
       <c r="F26" t="n">
-        <v>13.5037485322012</v>
+        <v>10.2419886817345</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J26" t="n">
-        <v>14.2857142857143</v>
+        <v>9.28571428571429</v>
       </c>
       <c r="K26" t="n">
         <v>8</v>
